--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAGP\Protractor\SachinAhuja_4597_Protractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\ProtractorCucumberTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9881657-18AA-4598-A590-4F3477521CEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="691" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="691" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Document Information " sheetId="13" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Protractor Test'!$G$3:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="LAPTOP4 - Personal View" guid="{A807CF8A-385E-44A5-8395-192B3E452E77}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="623" activeSheetId="3"/>
   </customWorkbookViews>
@@ -378,7 +377,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1420,6 +1419,33 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1432,12 +1458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,26 +1467,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
@@ -1474,18 +1500,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1506,37 +1523,19 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Sheet2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Wrap Text" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
+    <cellStyle name="Normal_Sheet2" xfId="4"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template" xfId="5"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet1" xfId="6"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2" xfId="7"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2 2" xfId="8"/>
+    <cellStyle name="Wrap Text" xfId="9"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1650,7 +1649,7 @@
         <xdr:cNvPr id="1033" name="Picture 2" descr="120X40.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0482FAF3-F16B-4AD2-9C70-2436270E83DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0482FAF3-F16B-4AD2-9C70-2436270E83DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1728,7 @@
         <xdr:cNvPr id="3089" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C055727-86E6-4FCF-8E32-4FD436F90736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C055727-86E6-4FCF-8E32-4FD436F90736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1803,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1FF2AA-FBCF-4430-8F74-2A0F84666A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC1FF2AA-FBCF-4430-8F74-2A0F84666A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1882,7 @@
         <xdr:cNvPr id="4114" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD4AB20-8163-4C62-B329-372D68738B5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD4AB20-8163-4C62-B329-372D68738B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1957,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B47FC-AB77-4321-9C3C-56A285FFEA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506B47FC-AB77-4321-9C3C-56A285FFEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2026,7 @@
         <xdr:cNvPr id="7" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CD59B0-0A2E-456E-BA77-34F3DA8FACD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8CD59B0-0A2E-456E-BA77-34F3DA8FACD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,23 +2161,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2214,23 +2196,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2406,7 +2371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2721,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2797,63 +2762,63 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="85" t="s">
+      <c r="L3" s="82"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="85" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="85" t="s">
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="85" t="s">
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="90"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
@@ -2862,14 +2827,14 @@
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
@@ -2929,7 +2894,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="90" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -3033,7 +2998,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
@@ -3135,7 +3100,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3202,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -3341,7 +3306,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
@@ -3443,7 +3408,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="28" t="s">
         <v>20</v>
       </c>
@@ -3545,7 +3510,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="90" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -3649,7 +3614,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="27" t="s">
         <v>19</v>
       </c>
@@ -3751,7 +3716,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
       </c>
@@ -3854,6 +3819,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="N3:Q3"/>
@@ -3864,13 +3836,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:J7 H6:J13">
     <cfRule type="containsBlanks" priority="45" stopIfTrue="1">
@@ -3939,15 +3904,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:F6"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -3967,20 +3932,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
@@ -3996,50 +3961,50 @@
       <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="101" t="s">
+      <c r="D3" s="103"/>
+      <c r="E3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="101" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="105"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="64"/>
-      <c r="K3" s="101"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:12" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="106"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="112"/>
       <c r="J4" s="66"/>
-      <c r="K4" s="102"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:12" s="65" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
@@ -4053,14 +4018,14 @@
       <c r="B6" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="114" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="69" t="s">
         <v>50</v>
       </c>
@@ -4078,14 +4043,14 @@
       <c r="B7" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="114" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="69" t="s">
         <v>50</v>
       </c>
@@ -4103,14 +4068,14 @@
       <c r="B8" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="69" t="s">
         <v>50</v>
       </c>
@@ -4128,14 +4093,14 @@
       <c r="B9" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="97" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="69" t="s">
         <v>50</v>
       </c>
@@ -4153,14 +4118,14 @@
       <c r="B10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="97" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="97"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="69" t="s">
         <v>50</v>
       </c>
@@ -4178,14 +4143,14 @@
       <c r="B11" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="114" t="s">
+      <c r="D11" s="98"/>
+      <c r="E11" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="115"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="69" t="s">
         <v>50</v>
       </c>
@@ -4203,14 +4168,14 @@
       <c r="B12" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="114" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="115"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="69" t="s">
         <v>50</v>
       </c>
@@ -4223,18 +4188,10 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -4251,17 +4208,25 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:K63538" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:K63538">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4276,6 +4241,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048078E69B5F9F6458DD37FFF31D6AF41" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="671caed847e6c3e832e18b1bc5db60ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="494dda22-c3f0-4107-887e-c3dccc46fbb5" xmlns:ns3="761615e3-01a8-40e1-b62c-47fc18b88ee3" xmlns:ns4="0be0e6d5-be74-4ab1-9e2e-2a03a1317613" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0324ee0ca32bf3a69896cc2ce0249cd1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="494dda22-c3f0-4107-887e-c3dccc46fbb5"/>
@@ -4465,37 +4445,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E76C75E-1541-4771-89BF-E3DDFAB0D4BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F42F32-08AC-4997-88D2-3D0B05886A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="494dda22-c3f0-4107-887e-c3dccc46fbb5"/>
-    <ds:schemaRef ds:uri="761615e3-01a8-40e1-b62c-47fc18b88ee3"/>
-    <ds:schemaRef ds:uri="0be0e6d5-be74-4ab1-9e2e-2a03a1317613"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4519,9 +4472,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F42F32-08AC-4997-88D2-3D0B05886A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E76C75E-1541-4771-89BF-E3DDFAB0D4BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="494dda22-c3f0-4107-887e-c3dccc46fbb5"/>
+    <ds:schemaRef ds:uri="761615e3-01a8-40e1-b62c-47fc18b88ee3"/>
+    <ds:schemaRef ds:uri="0be0e6d5-be74-4ab1-9e2e-2a03a1317613"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\ProtractorCucumberTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAGP\Protractor\SachinAhuja_4597_Protractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074A511-B890-444B-AF62-CBA6AE51B3DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="691" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Information " sheetId="13" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Protractor Test'!$G$3:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="LAPTOP4 - Personal View" guid="{A807CF8A-385E-44A5-8395-192B3E452E77}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="623" activeSheetId="3"/>
   </customWorkbookViews>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>Description</t>
   </si>
@@ -250,34 +251,10 @@
 5. Click Login button</t>
   </si>
   <si>
-    <t>1. Login button should be hidden before selecting Customer Name.
-2. Customer name selected in the dropdown should matches with name on page after Login.</t>
-  </si>
-  <si>
     <t>Test_Validate_DepositAmount</t>
   </si>
   <si>
     <t>Validate that customer is able to deposit amount in his account.</t>
-  </si>
-  <si>
-    <t>Validate that customer is able to see all transaction.</t>
-  </si>
-  <si>
-    <t>Validate the Reset button transaction screen.</t>
-  </si>
-  <si>
-    <t>1. Launch Browser
-2. Navigate to "http://www.way2automation.com/angularjs-protractor/banking/#/login"
-3. Click on Customer Login Button
-4. Select a user from the dropdown
-5. Click Login button
-6. Click Transaction button
-7. Click reset</t>
-  </si>
-  <si>
-    <t>1. It should delete all the transaction in that account.
-2. Balance should be 0
-3. Refresh the page should remove reset button.</t>
   </si>
   <si>
     <t>1. Launch Browser
@@ -291,9 +268,6 @@
 9. Click Deposit</t>
   </si>
   <si>
-    <t>Balance should get incremented with the amount deposited.</t>
-  </si>
-  <si>
     <t>Test_Validate_WithdrawAmount</t>
   </si>
   <si>
@@ -311,27 +285,10 @@
 9. Click Withdraw</t>
   </si>
   <si>
-    <t>Balance should get decremented with the amount withdraw.</t>
-  </si>
-  <si>
     <t>Test_Validate_TransactionReset</t>
   </si>
   <si>
     <t>Test_Validate_Transactions</t>
-  </si>
-  <si>
-    <t>1. Launch Browser
-2. Navigate to "http://www.way2automation.com/angularjs-protractor/banking/#/login"
-3. Click on Customer Login Button
-4. Select a user from the dropdown
-5. Click Login button
-6. Add some amount
-6. Withdraw some amount
-7. Get the balance 
-8. Click Transaction</t>
-  </si>
-  <si>
-    <t>Grid should have both the enteries.</t>
   </si>
   <si>
     <t>Test Cases Protractor</t>
@@ -373,11 +330,48 @@
   <si>
     <t>Customer should get a new account.</t>
   </si>
+  <si>
+    <t>1. Customer name selected in the dropdown should matches with name on page after Login.</t>
+  </si>
+  <si>
+    <t>Validate the Reset button on transaction screen.</t>
+  </si>
+  <si>
+    <t>Customer Withdrawl when amount is greater than equal to balance</t>
+  </si>
+  <si>
+    <t>User should get message as 'Transaction successful'</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Navigate to "http://www.way2automation.com/angularjs-protractor/banking/#/login"
+3. Click on Customer Login Button
+4. Select a user from the dropdown
+5. Click Login button
+6. Click Withdraw button
+7. Get the balance 
+8. Type amount greater than balance
+9. Click Withdraw</t>
+  </si>
+  <si>
+    <t>User should get message as 'Transaction Failed. You can not withdraw amount more than the balance.'</t>
+  </si>
+  <si>
+    <t>1. Launch Browser
+2. Navigate to "http://www.way2automation.com/angularjs-protractor/banking/#/login"
+3. Click on Customer Login Button
+4. Select a user from the dropdown
+5. Click Login button
+6. Navigate to Transactions Screen</t>
+  </si>
+  <si>
+    <t>Reset button should be present if balance is greater than 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1419,12 +1413,33 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,26 +1461,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
@@ -1474,7 +1471,40 @@
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1482,60 +1512,24 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="3"/>
-    <cellStyle name="Normal_Sheet2" xfId="4"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template" xfId="5"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet1" xfId="6"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2" xfId="7"/>
-    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2 2" xfId="8"/>
-    <cellStyle name="Wrap Text" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_Training Need Analysis Sheet Template_Sheet2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Wrap Text" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1649,7 +1643,7 @@
         <xdr:cNvPr id="1033" name="Picture 2" descr="120X40.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0482FAF3-F16B-4AD2-9C70-2436270E83DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0482FAF3-F16B-4AD2-9C70-2436270E83DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1722,7 @@
         <xdr:cNvPr id="3089" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C055727-86E6-4FCF-8E32-4FD436F90736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C055727-86E6-4FCF-8E32-4FD436F90736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1797,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC1FF2AA-FBCF-4430-8F74-2A0F84666A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1FF2AA-FBCF-4430-8F74-2A0F84666A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1876,7 @@
         <xdr:cNvPr id="4114" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD4AB20-8163-4C62-B329-372D68738B5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD4AB20-8163-4C62-B329-372D68738B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1951,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506B47FC-AB77-4321-9C3C-56A285FFEA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B47FC-AB77-4321-9C3C-56A285FFEA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2020,7 @@
         <xdr:cNvPr id="7" name="Picture 1" descr="C:\Documents and Settings\ashok586\Desktop\nagarro_white_logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8CD59B0-0A2E-456E-BA77-34F3DA8FACD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CD59B0-0A2E-456E-BA77-34F3DA8FACD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,6 +2155,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2196,6 +2207,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2371,10 +2399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2393,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -2686,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2762,63 +2790,63 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="81" t="s">
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="81" t="s">
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="81" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="81" t="s">
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="90"/>
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
@@ -2827,14 +2855,14 @@
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
@@ -2894,7 +2922,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="81" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -2998,7 +3026,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3128,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
@@ -3202,7 +3230,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -3306,7 +3334,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="91"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3436,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="28" t="s">
         <v>20</v>
       </c>
@@ -3510,7 +3538,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="81" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -3614,7 +3642,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="27" t="s">
         <v>19</v>
       </c>
@@ -3716,7 +3744,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
       </c>
@@ -3819,13 +3847,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="N3:Q3"/>
@@ -3836,6 +3857,13 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:J7 H6:J13">
     <cfRule type="containsBlanks" priority="45" stopIfTrue="1">
@@ -3904,15 +3932,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12:F12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -3932,20 +3960,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
@@ -3961,50 +3989,50 @@
       <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="102" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="102" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="107"/>
       <c r="J3" s="64"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:12" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="104"/>
       <c r="H4" s="104"/>
-      <c r="I4" s="112"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="66"/>
       <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:12" s="65" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
@@ -4016,24 +4044,24 @@
         <v>53</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="98"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="99"/>
       <c r="G6" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="H6" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4041,24 +4069,24 @@
         <v>54</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="98"/>
+        <v>79</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="99"/>
       <c r="G7" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
+      <c r="H7" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
       <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4068,22 +4096,22 @@
       <c r="B8" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="106" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
+      <c r="H8" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="72"/>
     </row>
     <row r="9" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4091,24 +4119,24 @@
         <v>56</v>
       </c>
       <c r="B9" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="D9" s="101"/>
+      <c r="E9" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
+      <c r="H9" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4116,24 +4144,24 @@
         <v>57</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="106"/>
+        <v>69</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="100"/>
       <c r="G10" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
+      <c r="H10" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="72"/>
     </row>
     <row r="11" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4141,24 +4169,24 @@
         <v>58</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="98"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="100"/>
       <c r="G11" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="H11" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
       <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:12" s="65" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -4166,28 +4194,50 @@
         <v>59</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="98"/>
+        <v>73</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="99"/>
       <c r="G12" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
+      <c r="H12" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -4196,37 +4246,15 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:K63538">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:K63538" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4241,18 +4269,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4446,14 +4474,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F42F32-08AC-4997-88D2-3D0B05886A62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA50CCC-0B20-471C-BFFD-D190C934FBCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4467,6 +4487,14 @@
     <ds:schemaRef ds:uri="761615e3-01a8-40e1-b62c-47fc18b88ee3"/>
     <ds:schemaRef ds:uri="494dda22-c3f0-4107-887e-c3dccc46fbb5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F42F32-08AC-4997-88D2-3D0B05886A62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
